--- a/Mau_Excel_De_Xuat.xlsx
+++ b/Mau_Excel_De_Xuat.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,9 +431,67 @@
         <v>DỰ TÍNH NGÂN SÁCH</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Nguyễn Văn A</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Phòng Kinh Doanh</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Bộ phận Bán hàng</v>
+      </c>
+      <c r="D2" t="str">
+        <v>01/05/2025</v>
+      </c>
+      <c r="E2" t="str">
+        <v>DX003</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Mua máy chiếu</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Hỗ trợ thuyết trình</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Công ty DEF</v>
+      </c>
+      <c r="I2">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Trần Thị B</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Phòng Hành Chính</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Bộ phận Nhân sự</v>
+      </c>
+      <c r="D3" t="str">
+        <v>03/05/2025</v>
+      </c>
+      <c r="E3" t="str">
+        <v>DX004</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Mua tủ hồ sơ</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Lưu trữ tài liệu</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Công ty GHI</v>
+      </c>
+      <c r="I3">
+        <v>3000000</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
   </ignoredErrors>
 </worksheet>
 </file>